--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/05,25/01,05,25 ПОКОМ ЗПФ филиалы/дв 01,05,25 млрсч пок зпф от Сарана (согласовал Скорохватов).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/05,25/01,05,25 ПОКОМ ЗПФ филиалы/дв 01,05,25 млрсч пок зпф от Сарана (согласовал Скорохватов).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,05,25 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\05,25\01,05,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DCFA4F-5D9C-435F-BCFB-6E0499920A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366B632-B046-41C3-ABEC-A7E7FF27D7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
